--- a/Results/property_id_weekdays/GF.xlsx
+++ b/Results/property_id_weekdays/GF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Property_id</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Channel</t>
   </si>
   <si>
+    <t>Day</t>
+  </si>
+  <si>
     <t>room_count</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>OTA</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
@@ -411,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,26 +454,29 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>42125</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -481,6 +490,9 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>15</v>
       </c>
     </row>
